--- a/Assets/Editor/Excels/ShopDetailsData.xlsx
+++ b/Assets/Editor/Excels/ShopDetailsData.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ShopDetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -64,28 +64,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,7 +89,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,7 +96,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,14 +103,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,7 +116,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,7 +123,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,14 +130,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,14 +143,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,7 +156,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +163,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,7 +170,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,21 +177,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -517,159 +497,306 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="52">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="15" applyFill="1" borderId="2" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="20" applyFill="1" borderId="4" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="1" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="9" applyFill="1" borderId="2" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="16" applyFill="1" borderId="3" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,108 +1157,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1" style="49"/>
+    <col min="2" max="2" width="16" customWidth="1" style="49"/>
+    <col min="3" max="3" width="12.625" customWidth="1" style="49"/>
+    <col min="4" max="4" width="10.375" customWidth="1" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="49">
         <v>1007</v>
       </c>
-      <c r="D4">
-        <v>20</v>
+      <c r="D4" s="49">
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="49">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="49">
         <v>1008</v>
       </c>
-      <c r="D5">
-        <v>21</v>
+      <c r="D5" s="49">
+        <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="49">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="49">
         <v>1009</v>
       </c>
-      <c r="D6">
-        <v>22</v>
+      <c r="D6" s="49">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="49">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="49">
         <v>1010</v>
       </c>
-      <c r="D7">
-        <v>23</v>
+      <c r="D7" s="49">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
